--- a/England League 1/England League 1.xlsx
+++ b/England League 1/England League 1.xlsx
@@ -50857,7 +50857,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>6808937</v>
+        <v>6807704</v>
       </c>
       <c r="C566" t="s">
         <v>28</v>
@@ -50869,76 +50869,76 @@
         <v>45292.5</v>
       </c>
       <c r="F566" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G566" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H566">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I566">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J566" t="s">
         <v>60</v>
       </c>
       <c r="K566">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L566">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M566">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N566">
+        <v>2.55</v>
+      </c>
+      <c r="O566">
+        <v>3.1</v>
+      </c>
+      <c r="P566">
+        <v>2.875</v>
+      </c>
+      <c r="Q566">
+        <v>0</v>
+      </c>
+      <c r="R566">
         <v>1.8</v>
       </c>
-      <c r="O566">
-        <v>3.6</v>
-      </c>
-      <c r="P566">
-        <v>4.5</v>
-      </c>
-      <c r="Q566">
-        <v>-0.75</v>
-      </c>
-      <c r="R566">
-        <v>1.975</v>
-      </c>
       <c r="S566">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T566">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U566">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V566">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W566">
+        <v>1.55</v>
+      </c>
+      <c r="X566">
+        <v>-1</v>
+      </c>
+      <c r="Y566">
+        <v>-1</v>
+      </c>
+      <c r="Z566">
         <v>0.8</v>
       </c>
-      <c r="X566">
-        <v>-1</v>
-      </c>
-      <c r="Y566">
-        <v>-1</v>
-      </c>
-      <c r="Z566">
-        <v>0.4875</v>
-      </c>
       <c r="AA566">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB566">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC566">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="567" spans="1:29">
@@ -50946,7 +50946,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>6807704</v>
+        <v>6807009</v>
       </c>
       <c r="C567" t="s">
         <v>28</v>
@@ -50958,76 +50958,76 @@
         <v>45292.5</v>
       </c>
       <c r="F567" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G567" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H567">
         <v>1</v>
       </c>
       <c r="I567">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J567" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K567">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L567">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M567">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="N567">
         <v>2.55</v>
       </c>
       <c r="O567">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P567">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q567">
         <v>0</v>
       </c>
       <c r="R567">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S567">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T567">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U567">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V567">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W567">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X567">
         <v>-1</v>
       </c>
       <c r="Y567">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z567">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA567">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB567">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC567">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="568" spans="1:29">
@@ -51035,7 +51035,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>6807009</v>
+        <v>6807699</v>
       </c>
       <c r="C568" t="s">
         <v>28</v>
@@ -51047,76 +51047,76 @@
         <v>45292.5</v>
       </c>
       <c r="F568" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G568" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H568">
         <v>1</v>
       </c>
       <c r="I568">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J568" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K568">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L568">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M568">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N568">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="O568">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P568">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q568">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R568">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S568">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T568">
         <v>2.75</v>
       </c>
       <c r="U568">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V568">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W568">
         <v>-1</v>
       </c>
       <c r="X568">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y568">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z568">
         <v>-1</v>
       </c>
       <c r="AA568">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB568">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC568">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="569" spans="1:29">
@@ -51124,7 +51124,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>6807699</v>
+        <v>6807700</v>
       </c>
       <c r="C569" t="s">
         <v>28</v>
@@ -51136,49 +51136,49 @@
         <v>45292.5</v>
       </c>
       <c r="F569" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G569" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K569">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L569">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M569">
         <v>5</v>
       </c>
       <c r="N569">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O569">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P569">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q569">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R569">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S569">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T569">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U569">
         <v>1.975</v>
@@ -51187,19 +51187,19 @@
         <v>1.875</v>
       </c>
       <c r="W569">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X569">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y569">
         <v>-1</v>
       </c>
       <c r="Z569">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA569">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB569">
         <v>-1</v>
@@ -51213,7 +51213,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>6807700</v>
+        <v>6807701</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51225,76 +51225,76 @@
         <v>45292.5</v>
       </c>
       <c r="F570" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G570" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570">
+        <v>2</v>
+      </c>
+      <c r="J570" t="s">
+        <v>61</v>
+      </c>
+      <c r="K570">
+        <v>2.3</v>
+      </c>
+      <c r="L570">
+        <v>3.1</v>
+      </c>
+      <c r="M570">
+        <v>3.3</v>
+      </c>
+      <c r="N570">
+        <v>2.6</v>
+      </c>
+      <c r="O570">
+        <v>3</v>
+      </c>
+      <c r="P570">
+        <v>2.9</v>
+      </c>
+      <c r="Q570">
         <v>0</v>
       </c>
-      <c r="J570" t="s">
-        <v>60</v>
-      </c>
-      <c r="K570">
-        <v>1.615</v>
-      </c>
-      <c r="L570">
-        <v>4</v>
-      </c>
-      <c r="M570">
-        <v>5</v>
-      </c>
-      <c r="N570">
-        <v>1.5</v>
-      </c>
-      <c r="O570">
-        <v>4.2</v>
-      </c>
-      <c r="P570">
-        <v>6.5</v>
-      </c>
-      <c r="Q570">
-        <v>-1</v>
-      </c>
       <c r="R570">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S570">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T570">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U570">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V570">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W570">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X570">
         <v>-1</v>
       </c>
       <c r="Y570">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z570">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA570">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB570">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC570">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="571" spans="1:29">
@@ -51302,7 +51302,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6807701</v>
+        <v>6807702</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51314,76 +51314,76 @@
         <v>45292.5</v>
       </c>
       <c r="F571" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G571" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K571">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L571">
         <v>3.1</v>
       </c>
       <c r="M571">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N571">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O571">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P571">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q571">
         <v>0</v>
       </c>
       <c r="R571">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S571">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T571">
         <v>2.25</v>
       </c>
       <c r="U571">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V571">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W571">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA571">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC571">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51391,7 +51391,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6807702</v>
+        <v>6807703</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51403,73 +51403,73 @@
         <v>45292.5</v>
       </c>
       <c r="F572" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G572" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H572">
         <v>2</v>
       </c>
       <c r="I572">
+        <v>3</v>
+      </c>
+      <c r="J572" t="s">
+        <v>61</v>
+      </c>
+      <c r="K572">
+        <v>2.2</v>
+      </c>
+      <c r="L572">
+        <v>3.5</v>
+      </c>
+      <c r="M572">
+        <v>3.1</v>
+      </c>
+      <c r="N572">
+        <v>1.833</v>
+      </c>
+      <c r="O572">
+        <v>3.8</v>
+      </c>
+      <c r="P572">
+        <v>4.2</v>
+      </c>
+      <c r="Q572">
+        <v>-0.5</v>
+      </c>
+      <c r="R572">
+        <v>1.85</v>
+      </c>
+      <c r="S572">
+        <v>2</v>
+      </c>
+      <c r="T572">
+        <v>2.75</v>
+      </c>
+      <c r="U572">
+        <v>1.825</v>
+      </c>
+      <c r="V572">
+        <v>2.025</v>
+      </c>
+      <c r="W572">
+        <v>-1</v>
+      </c>
+      <c r="X572">
+        <v>-1</v>
+      </c>
+      <c r="Y572">
+        <v>3.2</v>
+      </c>
+      <c r="Z572">
+        <v>-1</v>
+      </c>
+      <c r="AA572">
         <v>1</v>
       </c>
-      <c r="J572" t="s">
-        <v>60</v>
-      </c>
-      <c r="K572">
-        <v>2.5</v>
-      </c>
-      <c r="L572">
-        <v>3.1</v>
-      </c>
-      <c r="M572">
-        <v>2.9</v>
-      </c>
-      <c r="N572">
-        <v>2.875</v>
-      </c>
-      <c r="O572">
-        <v>3.2</v>
-      </c>
-      <c r="P572">
-        <v>2.55</v>
-      </c>
-      <c r="Q572">
-        <v>0</v>
-      </c>
-      <c r="R572">
-        <v>2.1</v>
-      </c>
-      <c r="S572">
-        <v>1.775</v>
-      </c>
-      <c r="T572">
-        <v>2.25</v>
-      </c>
-      <c r="U572">
-        <v>1.925</v>
-      </c>
-      <c r="V572">
-        <v>1.925</v>
-      </c>
-      <c r="W572">
-        <v>1.875</v>
-      </c>
-      <c r="X572">
-        <v>-1</v>
-      </c>
-      <c r="Y572">
-        <v>-1</v>
-      </c>
-      <c r="Z572">
-        <v>1.1</v>
-      </c>
-      <c r="AA572">
-        <v>-1</v>
-      </c>
       <c r="AB572">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC572">
         <v>-1</v>
@@ -51480,7 +51480,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>6807703</v>
+        <v>6808938</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51492,34 +51492,34 @@
         <v>45292.5</v>
       </c>
       <c r="F573" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G573" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H573">
         <v>2</v>
       </c>
       <c r="I573">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K573">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L573">
+        <v>3.3</v>
+      </c>
+      <c r="M573">
+        <v>4.2</v>
+      </c>
+      <c r="N573">
+        <v>1.909</v>
+      </c>
+      <c r="O573">
         <v>3.5</v>
-      </c>
-      <c r="M573">
-        <v>3.1</v>
-      </c>
-      <c r="N573">
-        <v>1.833</v>
-      </c>
-      <c r="O573">
-        <v>3.8</v>
       </c>
       <c r="P573">
         <v>4.2</v>
@@ -51528,13 +51528,13 @@
         <v>-0.5</v>
       </c>
       <c r="R573">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S573">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T573">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U573">
         <v>1.825</v>
@@ -51543,19 +51543,19 @@
         <v>2.025</v>
       </c>
       <c r="W573">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X573">
         <v>-1</v>
       </c>
       <c r="Y573">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z573">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA573">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB573">
         <v>0.825</v>
@@ -51569,7 +51569,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>6808938</v>
+        <v>6808937</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51581,40 +51581,40 @@
         <v>45292.5</v>
       </c>
       <c r="F574" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G574" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I574">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J574" t="s">
         <v>60</v>
       </c>
       <c r="K574">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L574">
         <v>3.3</v>
       </c>
       <c r="M574">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N574">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O574">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P574">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q574">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R574">
         <v>1.975</v>
@@ -51623,16 +51623,16 @@
         <v>1.875</v>
       </c>
       <c r="T574">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U574">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V574">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W574">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X574">
         <v>-1</v>
@@ -51641,13 +51641,13 @@
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA574">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB574">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC574">
         <v>-1</v>
@@ -53349,7 +53349,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>6807726</v>
+        <v>6807722</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53361,25 +53361,25 @@
         <v>45311.5</v>
       </c>
       <c r="F594" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G594" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594">
         <v>0</v>
       </c>
       <c r="J594" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K594">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L594">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M594">
         <v>3</v>
@@ -53388,49 +53388,49 @@
         <v>2.3</v>
       </c>
       <c r="O594">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P594">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q594">
         <v>-0.25</v>
       </c>
       <c r="R594">
+        <v>1.975</v>
+      </c>
+      <c r="S594">
+        <v>1.875</v>
+      </c>
+      <c r="T594">
+        <v>2.25</v>
+      </c>
+      <c r="U594">
         <v>2.05</v>
       </c>
-      <c r="S594">
+      <c r="V594">
         <v>1.8</v>
       </c>
-      <c r="T594">
-        <v>2.5</v>
-      </c>
-      <c r="U594">
-        <v>1.875</v>
-      </c>
-      <c r="V594">
-        <v>1.975</v>
-      </c>
       <c r="W594">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X594">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y594">
         <v>-1</v>
       </c>
       <c r="Z594">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA594">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB594">
         <v>-1</v>
       </c>
       <c r="AC594">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="595" spans="1:29">
@@ -53438,7 +53438,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6807722</v>
+        <v>6807724</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53450,76 +53450,76 @@
         <v>45311.5</v>
       </c>
       <c r="F595" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G595" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H595">
+        <v>2</v>
+      </c>
+      <c r="I595">
+        <v>1</v>
+      </c>
+      <c r="J595" t="s">
+        <v>60</v>
+      </c>
+      <c r="K595">
+        <v>1.363</v>
+      </c>
+      <c r="L595">
+        <v>4.75</v>
+      </c>
+      <c r="M595">
+        <v>8.5</v>
+      </c>
+      <c r="N595">
+        <v>1.3</v>
+      </c>
+      <c r="O595">
+        <v>5.75</v>
+      </c>
+      <c r="P595">
+        <v>9</v>
+      </c>
+      <c r="Q595">
+        <v>-1.5</v>
+      </c>
+      <c r="R595">
+        <v>1.825</v>
+      </c>
+      <c r="S595">
+        <v>2.025</v>
+      </c>
+      <c r="T595">
+        <v>3</v>
+      </c>
+      <c r="U595">
+        <v>1.95</v>
+      </c>
+      <c r="V595">
+        <v>1.9</v>
+      </c>
+      <c r="W595">
+        <v>0.3</v>
+      </c>
+      <c r="X595">
+        <v>-1</v>
+      </c>
+      <c r="Y595">
+        <v>-1</v>
+      </c>
+      <c r="Z595">
+        <v>-1</v>
+      </c>
+      <c r="AA595">
+        <v>1.025</v>
+      </c>
+      <c r="AB595">
         <v>0</v>
       </c>
-      <c r="I595">
-        <v>0</v>
-      </c>
-      <c r="J595" t="s">
-        <v>62</v>
-      </c>
-      <c r="K595">
-        <v>2.3</v>
-      </c>
-      <c r="L595">
-        <v>3.4</v>
-      </c>
-      <c r="M595">
-        <v>3</v>
-      </c>
-      <c r="N595">
-        <v>2.3</v>
-      </c>
-      <c r="O595">
-        <v>3.2</v>
-      </c>
-      <c r="P595">
-        <v>3.25</v>
-      </c>
-      <c r="Q595">
-        <v>-0.25</v>
-      </c>
-      <c r="R595">
-        <v>1.975</v>
-      </c>
-      <c r="S595">
-        <v>1.875</v>
-      </c>
-      <c r="T595">
-        <v>2.25</v>
-      </c>
-      <c r="U595">
-        <v>2.05</v>
-      </c>
-      <c r="V595">
-        <v>1.8</v>
-      </c>
-      <c r="W595">
-        <v>-1</v>
-      </c>
-      <c r="X595">
-        <v>2.2</v>
-      </c>
-      <c r="Y595">
-        <v>-1</v>
-      </c>
-      <c r="Z595">
-        <v>-0.5</v>
-      </c>
-      <c r="AA595">
-        <v>0.4375</v>
-      </c>
-      <c r="AB595">
-        <v>-1</v>
-      </c>
       <c r="AC595">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -53527,7 +53527,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6807724</v>
+        <v>6807726</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53539,59 +53539,59 @@
         <v>45311.5</v>
       </c>
       <c r="F596" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G596" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J596" t="s">
         <v>60</v>
       </c>
       <c r="K596">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L596">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M596">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="N596">
+        <v>2.3</v>
+      </c>
+      <c r="O596">
+        <v>3.6</v>
+      </c>
+      <c r="P596">
+        <v>3</v>
+      </c>
+      <c r="Q596">
+        <v>-0.25</v>
+      </c>
+      <c r="R596">
+        <v>2.05</v>
+      </c>
+      <c r="S596">
+        <v>1.8</v>
+      </c>
+      <c r="T596">
+        <v>2.5</v>
+      </c>
+      <c r="U596">
+        <v>1.875</v>
+      </c>
+      <c r="V596">
+        <v>1.975</v>
+      </c>
+      <c r="W596">
         <v>1.3</v>
       </c>
-      <c r="O596">
-        <v>5.75</v>
-      </c>
-      <c r="P596">
-        <v>9</v>
-      </c>
-      <c r="Q596">
-        <v>-1.5</v>
-      </c>
-      <c r="R596">
-        <v>1.825</v>
-      </c>
-      <c r="S596">
-        <v>2.025</v>
-      </c>
-      <c r="T596">
-        <v>3</v>
-      </c>
-      <c r="U596">
-        <v>1.95</v>
-      </c>
-      <c r="V596">
-        <v>1.9</v>
-      </c>
-      <c r="W596">
-        <v>0.3</v>
-      </c>
       <c r="X596">
         <v>-1</v>
       </c>
@@ -53599,16 +53599,16 @@
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA596">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB596">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC596">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53616,7 +53616,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>7060578</v>
+        <v>7060575</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53628,76 +53628,76 @@
         <v>45311.5</v>
       </c>
       <c r="F597" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G597" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H597">
+        <v>1</v>
+      </c>
+      <c r="I597">
+        <v>2</v>
+      </c>
+      <c r="J597" t="s">
+        <v>61</v>
+      </c>
+      <c r="K597">
+        <v>2.6</v>
+      </c>
+      <c r="L597">
+        <v>3.4</v>
+      </c>
+      <c r="M597">
+        <v>2.6</v>
+      </c>
+      <c r="N597">
+        <v>2.625</v>
+      </c>
+      <c r="O597">
+        <v>3.4</v>
+      </c>
+      <c r="P597">
+        <v>2.625</v>
+      </c>
+      <c r="Q597">
         <v>0</v>
       </c>
-      <c r="I597">
-        <v>0</v>
-      </c>
-      <c r="J597" t="s">
-        <v>62</v>
-      </c>
-      <c r="K597">
-        <v>4.333</v>
-      </c>
-      <c r="L597">
-        <v>3.5</v>
-      </c>
-      <c r="M597">
-        <v>1.833</v>
-      </c>
-      <c r="N597">
-        <v>4.75</v>
-      </c>
-      <c r="O597">
-        <v>3.75</v>
-      </c>
-      <c r="P597">
-        <v>1.727</v>
-      </c>
-      <c r="Q597">
-        <v>0.75</v>
-      </c>
       <c r="R597">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S597">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T597">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U597">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V597">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W597">
         <v>-1</v>
       </c>
       <c r="X597">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z597">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA597">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB597">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC597">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53705,7 +53705,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>7060575</v>
+        <v>7060576</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53717,76 +53717,76 @@
         <v>45311.5</v>
       </c>
       <c r="F598" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G598" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J598" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K598">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="L598">
         <v>3.4</v>
       </c>
       <c r="M598">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N598">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="O598">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P598">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q598">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R598">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S598">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T598">
         <v>2.5</v>
       </c>
       <c r="U598">
+        <v>2</v>
+      </c>
+      <c r="V598">
         <v>1.85</v>
       </c>
-      <c r="V598">
-        <v>2</v>
-      </c>
       <c r="W598">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X598">
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z598">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA598">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB598">
+        <v>-1</v>
+      </c>
+      <c r="AC598">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC598">
-        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -53794,7 +53794,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>7060576</v>
+        <v>7060577</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53806,13 +53806,13 @@
         <v>45311.5</v>
       </c>
       <c r="F599" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G599" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599">
         <v>0</v>
@@ -53821,43 +53821,43 @@
         <v>60</v>
       </c>
       <c r="K599">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="L599">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M599">
+        <v>2</v>
+      </c>
+      <c r="N599">
+        <v>3.1</v>
+      </c>
+      <c r="O599">
+        <v>3.3</v>
+      </c>
+      <c r="P599">
         <v>2.375</v>
-      </c>
-      <c r="N599">
-        <v>3.2</v>
-      </c>
-      <c r="O599">
-        <v>3.5</v>
-      </c>
-      <c r="P599">
-        <v>2.2</v>
       </c>
       <c r="Q599">
         <v>0.25</v>
       </c>
       <c r="R599">
+        <v>1.825</v>
+      </c>
+      <c r="S599">
+        <v>2.025</v>
+      </c>
+      <c r="T599">
+        <v>2.25</v>
+      </c>
+      <c r="U599">
         <v>1.925</v>
       </c>
-      <c r="S599">
+      <c r="V599">
         <v>1.925</v>
       </c>
-      <c r="T599">
-        <v>2.5</v>
-      </c>
-      <c r="U599">
-        <v>2</v>
-      </c>
-      <c r="V599">
-        <v>1.85</v>
-      </c>
       <c r="W599">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X599">
         <v>-1</v>
@@ -53866,16 +53866,16 @@
         <v>-1</v>
       </c>
       <c r="Z599">
+        <v>0.825</v>
+      </c>
+      <c r="AA599">
+        <v>-1</v>
+      </c>
+      <c r="AB599">
+        <v>-1</v>
+      </c>
+      <c r="AC599">
         <v>0.925</v>
-      </c>
-      <c r="AA599">
-        <v>-1</v>
-      </c>
-      <c r="AB599">
-        <v>-1</v>
-      </c>
-      <c r="AC599">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53883,7 +53883,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>7060577</v>
+        <v>7060578</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53895,67 +53895,67 @@
         <v>45311.5</v>
       </c>
       <c r="F600" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G600" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600">
         <v>0</v>
       </c>
       <c r="J600" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K600">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L600">
         <v>3.5</v>
       </c>
       <c r="M600">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N600">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O600">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P600">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="Q600">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R600">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S600">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T600">
         <v>2.25</v>
       </c>
       <c r="U600">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V600">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W600">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X600">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA600">
         <v>-1</v>
@@ -53964,7 +53964,7 @@
         <v>-1</v>
       </c>
       <c r="AC600">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -58778,7 +58778,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>7158778</v>
+        <v>7158709</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58790,76 +58790,76 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F655" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G655" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655">
         <v>1</v>
       </c>
       <c r="J655" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K655">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L655">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M655">
+        <v>5.5</v>
+      </c>
+      <c r="N655">
+        <v>1.8</v>
+      </c>
+      <c r="O655">
+        <v>3.8</v>
+      </c>
+      <c r="P655">
+        <v>4.333</v>
+      </c>
+      <c r="Q655">
+        <v>-0.5</v>
+      </c>
+      <c r="R655">
+        <v>1.8</v>
+      </c>
+      <c r="S655">
+        <v>2.05</v>
+      </c>
+      <c r="T655">
         <v>2.5</v>
       </c>
-      <c r="N655">
-        <v>2.625</v>
-      </c>
-      <c r="O655">
-        <v>3.5</v>
-      </c>
-      <c r="P655">
-        <v>2.6</v>
-      </c>
-      <c r="Q655">
-        <v>0</v>
-      </c>
-      <c r="R655">
-        <v>2.025</v>
-      </c>
-      <c r="S655">
-        <v>1.825</v>
-      </c>
-      <c r="T655">
-        <v>2.75</v>
-      </c>
       <c r="U655">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V655">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W655">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X655">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y655">
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA655">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB655">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC655">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -58956,7 +58956,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>7158709</v>
+        <v>7158778</v>
       </c>
       <c r="C657" t="s">
         <v>28</v>
@@ -58968,76 +58968,76 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F657" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G657" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657">
         <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K657">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="L657">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M657">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N657">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O657">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P657">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q657">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R657">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S657">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T657">
+        <v>2.75</v>
+      </c>
+      <c r="U657">
+        <v>2.025</v>
+      </c>
+      <c r="V657">
+        <v>1.825</v>
+      </c>
+      <c r="W657">
+        <v>-1</v>
+      </c>
+      <c r="X657">
         <v>2.5</v>
       </c>
-      <c r="U657">
-        <v>1.875</v>
-      </c>
-      <c r="V657">
-        <v>1.975</v>
-      </c>
-      <c r="W657">
-        <v>0.8</v>
-      </c>
-      <c r="X657">
-        <v>-1</v>
-      </c>
       <c r="Y657">
         <v>-1</v>
       </c>
       <c r="Z657">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA657">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB657">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC657">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="658" spans="1:29">
@@ -61537,7 +61537,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>7765060</v>
+        <v>7622654</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61549,46 +61549,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F686" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G686" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K686">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L686">
         <v>3.4</v>
       </c>
       <c r="M686">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N686">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O686">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P686">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q686">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R686">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S686">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T686">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V686">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W686">
         <v>0</v>
@@ -61611,7 +61611,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>7350080</v>
+        <v>7765060</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61623,46 +61623,46 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F687" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G687" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K687">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L687">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M687">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N687">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O687">
+        <v>3.3</v>
+      </c>
+      <c r="P687">
         <v>3.6</v>
       </c>
-      <c r="P687">
-        <v>5.5</v>
-      </c>
       <c r="Q687">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R687">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S687">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T687">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U687">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V687">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W687">
         <v>0</v>
@@ -61685,7 +61685,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>7611294</v>
+        <v>7350080</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61697,40 +61697,40 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F688" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G688" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K688">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L688">
         <v>3.5</v>
       </c>
       <c r="M688">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N688">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O688">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P688">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q688">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R688">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S688">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T688">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U688">
         <v>2</v>
@@ -61759,7 +61759,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>7622654</v>
+        <v>7611294</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61771,37 +61771,37 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F689" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G689" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K689">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L689">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M689">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N689">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O689">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P689">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q689">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R689">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S689">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T689">
         <v>2.5</v>

--- a/England League 1/England League 1.xlsx
+++ b/England League 1/England League 1.xlsx
@@ -5370,7 +5370,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6806990</v>
+        <v>6807507</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5379,58 +5379,58 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
         <v>56</v>
       </c>
       <c r="J57">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="N57">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P57">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q57">
+        <v>1.875</v>
+      </c>
+      <c r="R57">
         <v>1.975</v>
       </c>
-      <c r="R57">
-        <v>1.875</v>
-      </c>
       <c r="S57">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5439,16 +5439,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>-0.5</v>
       </c>
-      <c r="AA57">
-        <v>0.5125</v>
-      </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5456,7 +5456,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6807503</v>
+        <v>6806990</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5465,76 +5465,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>1</v>
       </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
       <c r="I58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J58">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="K58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L58">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N58">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T58">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z58">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5542,7 +5542,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6807504</v>
+        <v>6807503</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5551,76 +5551,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J59">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K59">
+        <v>3.3</v>
+      </c>
+      <c r="L59">
+        <v>3.1</v>
+      </c>
+      <c r="M59">
+        <v>2.25</v>
+      </c>
+      <c r="N59">
         <v>3.4</v>
       </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>4.5</v>
-      </c>
-      <c r="N59">
-        <v>3.6</v>
-      </c>
       <c r="O59">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
         <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5628,7 +5628,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6807505</v>
+        <v>6807504</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -5637,49 +5637,49 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J60">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="K60">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O60">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
         <v>1.9</v>
@@ -5691,16 +5691,16 @@
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X60">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5714,7 +5714,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6807507</v>
+        <v>6807505</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -5723,76 +5723,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J61">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="K61">
         <v>3.25</v>
       </c>
       <c r="L61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O61">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
         <v>2.25</v>
       </c>
       <c r="T61">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -7004,7 +7004,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6807534</v>
+        <v>6807533</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7013,76 +7013,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J76">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O76">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
         <v>2.5</v>
       </c>
       <c r="T76">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7090,7 +7090,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6807535</v>
+        <v>6807534</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7099,76 +7099,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J77">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q77">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T77">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7176,7 +7176,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6807533</v>
+        <v>6807535</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7185,10 +7185,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7200,61 +7200,61 @@
         <v>55</v>
       </c>
       <c r="J78">
+        <v>2.1</v>
+      </c>
+      <c r="K78">
+        <v>3.25</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>2.05</v>
+      </c>
+      <c r="N78">
+        <v>3.2</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>-0.5</v>
+      </c>
+      <c r="Q78">
+        <v>2.05</v>
+      </c>
+      <c r="R78">
+        <v>1.8</v>
+      </c>
+      <c r="S78">
+        <v>2.25</v>
+      </c>
+      <c r="T78">
+        <v>2.05</v>
+      </c>
+      <c r="U78">
+        <v>1.8</v>
+      </c>
+      <c r="V78">
+        <v>-1</v>
+      </c>
+      <c r="W78">
         <v>2.2</v>
       </c>
-      <c r="K78">
-        <v>3.4</v>
-      </c>
-      <c r="L78">
-        <v>3.2</v>
-      </c>
-      <c r="M78">
-        <v>2.15</v>
-      </c>
-      <c r="N78">
-        <v>3.4</v>
-      </c>
-      <c r="O78">
-        <v>3.4</v>
-      </c>
-      <c r="P78">
-        <v>-0.25</v>
-      </c>
-      <c r="Q78">
-        <v>1.825</v>
-      </c>
-      <c r="R78">
-        <v>2.025</v>
-      </c>
-      <c r="S78">
-        <v>2.5</v>
-      </c>
-      <c r="T78">
-        <v>1.95</v>
-      </c>
-      <c r="U78">
-        <v>1.9</v>
-      </c>
-      <c r="V78">
-        <v>-1</v>
-      </c>
-      <c r="W78">
-        <v>2.4</v>
-      </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
+        <v>0.8</v>
+      </c>
+      <c r="AA78">
         <v>-0.5</v>
       </c>
-      <c r="Z78">
-        <v>0.5125</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
       <c r="AB78">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7520,7 +7520,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6807537</v>
+        <v>6808973</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7529,76 +7529,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K82">
         <v>3.4</v>
       </c>
       <c r="L82">
+        <v>3.1</v>
+      </c>
+      <c r="M82">
+        <v>1.95</v>
+      </c>
+      <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82">
         <v>3.75</v>
       </c>
-      <c r="M82">
-        <v>2.375</v>
-      </c>
-      <c r="N82">
-        <v>3.2</v>
-      </c>
-      <c r="O82">
-        <v>3.1</v>
-      </c>
       <c r="P82">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q82">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7606,7 +7606,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6808974</v>
+        <v>6807537</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -7615,58 +7615,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>56</v>
       </c>
       <c r="J83">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N83">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="P83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7675,16 +7675,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7692,7 +7692,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6807539</v>
+        <v>6808974</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -7701,10 +7701,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7716,43 +7716,43 @@
         <v>56</v>
       </c>
       <c r="J84">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="K84">
         <v>3.5</v>
       </c>
       <c r="L84">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="M84">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="P84">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q84">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
         <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>0.95</v>
+        <v>2.3</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7761,13 +7761,13 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7778,7 +7778,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6808973</v>
+        <v>6807539</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -7787,28 +7787,28 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J85">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K85">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M85">
         <v>1.95</v>
@@ -7817,46 +7817,46 @@
         <v>3.6</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
         <v>-0.5</v>
       </c>
       <c r="Q85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
         <v>2.5</v>
       </c>
       <c r="T85">
+        <v>1.9</v>
+      </c>
+      <c r="U85">
         <v>1.95</v>
       </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
       <c r="V85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W85">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -9756,7 +9756,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6807558</v>
+        <v>6807556</v>
       </c>
       <c r="C108" t="s">
         <v>29</v>
@@ -9765,55 +9765,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>1</v>
-      </c>
-      <c r="H108">
-        <v>2</v>
       </c>
       <c r="I108" t="s">
         <v>54</v>
       </c>
       <c r="J108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K108">
         <v>3.6</v>
       </c>
       <c r="L108">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M108">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O108">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="P108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
         <v>2.5</v>
       </c>
       <c r="T108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
         <v>-1</v>
@@ -9822,19 +9822,19 @@
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9842,7 +9842,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6807559</v>
+        <v>6807557</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -9851,76 +9851,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J109">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N109">
         <v>3.5</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="P109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q109">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R109">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
         <v>2.5</v>
       </c>
       <c r="T109">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9928,7 +9928,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6808969</v>
+        <v>6807558</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
@@ -9937,55 +9937,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="s">
         <v>54</v>
       </c>
       <c r="J110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L110">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M110">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N110">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O110">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T110">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U110">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
         <v>-1</v>
@@ -9994,16 +9994,16 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
         <v>-1</v>
@@ -10014,7 +10014,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6808970</v>
+        <v>6807559</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10023,76 +10023,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K111">
         <v>3.75</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M111">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O111">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P111">
         <v>-0.5</v>
       </c>
       <c r="Q111">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
         <v>2.5</v>
       </c>
       <c r="T111">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W111">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10100,7 +10100,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6807557</v>
+        <v>6808969</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10109,76 +10109,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N112">
         <v>3.5</v>
       </c>
       <c r="O112">
+        <v>2.8</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>1.75</v>
+      </c>
+      <c r="R112">
+        <v>2.05</v>
+      </c>
+      <c r="S112">
         <v>2.25</v>
       </c>
-      <c r="P112">
-        <v>0.25</v>
-      </c>
-      <c r="Q112">
-        <v>1.825</v>
-      </c>
-      <c r="R112">
-        <v>2.025</v>
-      </c>
-      <c r="S112">
-        <v>2.5</v>
-      </c>
       <c r="T112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y112">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10186,7 +10186,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6807553</v>
+        <v>6808970</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10195,76 +10195,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L113">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N113">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
         <v>2.5</v>
       </c>
       <c r="T113">
+        <v>1.875</v>
+      </c>
+      <c r="U113">
         <v>1.975</v>
       </c>
-      <c r="U113">
-        <v>1.875</v>
-      </c>
       <c r="V113">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10272,7 +10272,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6807556</v>
+        <v>6807553</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10281,40 +10281,40 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J114">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="K114">
         <v>3.6</v>
       </c>
       <c r="L114">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M114">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N114">
         <v>3.5</v>
       </c>
       <c r="O114">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q114">
         <v>1.925</v>
@@ -10326,31 +10326,31 @@
         <v>2.5</v>
       </c>
       <c r="T114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10788,7 +10788,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6807564</v>
+        <v>6807563</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -10797,76 +10797,76 @@
         <v>45202.65625</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
         <v>3.4</v>
       </c>
-      <c r="K120">
-        <v>3.5</v>
-      </c>
       <c r="L120">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O120">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="P120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S120">
         <v>2.5</v>
       </c>
       <c r="T120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
         <v>-1</v>
       </c>
       <c r="W120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10874,7 +10874,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6807563</v>
+        <v>6807560</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -10883,55 +10883,55 @@
         <v>45202.65625</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="s">
         <v>54</v>
       </c>
       <c r="J121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K121">
         <v>3.4</v>
       </c>
       <c r="L121">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="P121">
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T121">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V121">
         <v>-1</v>
@@ -10940,16 +10940,16 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -10960,7 +10960,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6807560</v>
+        <v>6807561</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -10969,73 +10969,73 @@
         <v>45202.65625</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J122">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K122">
         <v>3.4</v>
       </c>
       <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3.6</v>
+      </c>
+      <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
+        <v>-0.5</v>
+      </c>
+      <c r="Q122">
+        <v>2.05</v>
+      </c>
+      <c r="R122">
+        <v>1.8</v>
+      </c>
+      <c r="S122">
         <v>2.5</v>
       </c>
-      <c r="M122">
-        <v>2.5</v>
-      </c>
-      <c r="N122">
-        <v>3.2</v>
-      </c>
-      <c r="O122">
-        <v>2.9</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>1.8</v>
-      </c>
-      <c r="R122">
-        <v>2.05</v>
-      </c>
-      <c r="S122">
-        <v>2.25</v>
-      </c>
       <c r="T122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11218,7 +11218,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6807561</v>
+        <v>6807564</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11227,46 +11227,46 @@
         <v>45202.65625</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J125">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="K125">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N125">
         <v>3.6</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="P125">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q125">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
         <v>2.5</v>
@@ -11278,25 +11278,25 @@
         <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -21108,7 +21108,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6807669</v>
+        <v>6807670</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -21117,76 +21117,76 @@
         <v>45276.5</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J240">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="K240">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L240">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N240">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O240">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q240">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T240">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z240">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB240">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21194,7 +21194,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6807671</v>
+        <v>6808945</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -21203,76 +21203,76 @@
         <v>45276.5</v>
       </c>
       <c r="E241" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J241">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="K241">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L241">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M241">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="N241">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O241">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="P241">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T241">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
         <v>-1</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X241">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21280,7 +21280,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6808945</v>
+        <v>6807671</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -21289,76 +21289,76 @@
         <v>45276.5</v>
       </c>
       <c r="E242" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J242">
+        <v>4.5</v>
+      </c>
+      <c r="K242">
+        <v>3.1</v>
+      </c>
+      <c r="L242">
+        <v>1.909</v>
+      </c>
+      <c r="M242">
+        <v>5.25</v>
+      </c>
+      <c r="N242">
+        <v>3.6</v>
+      </c>
+      <c r="O242">
         <v>1.666</v>
       </c>
-      <c r="K242">
-        <v>3.75</v>
-      </c>
-      <c r="L242">
-        <v>5</v>
-      </c>
-      <c r="M242">
-        <v>1.571</v>
-      </c>
-      <c r="N242">
-        <v>3.8</v>
-      </c>
-      <c r="O242">
-        <v>6</v>
-      </c>
       <c r="P242">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q242">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T242">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U242">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
         <v>-1</v>
       </c>
       <c r="W242">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB242">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -21366,7 +21366,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6807670</v>
+        <v>6807669</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -21375,76 +21375,76 @@
         <v>45276.5</v>
       </c>
       <c r="E243" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243" t="s">
+        <v>54</v>
+      </c>
+      <c r="J243">
+        <v>3.6</v>
+      </c>
+      <c r="K243">
+        <v>3.5</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>4.5</v>
+      </c>
+      <c r="N243">
+        <v>4.2</v>
+      </c>
+      <c r="O243">
+        <v>1.666</v>
+      </c>
+      <c r="P243">
+        <v>0.75</v>
+      </c>
+      <c r="Q243">
+        <v>1.95</v>
+      </c>
+      <c r="R243">
+        <v>1.9</v>
+      </c>
+      <c r="S243">
         <v>3</v>
       </c>
-      <c r="H243">
-        <v>2</v>
-      </c>
-      <c r="I243" t="s">
-        <v>56</v>
-      </c>
-      <c r="J243">
-        <v>2.15</v>
-      </c>
-      <c r="K243">
-        <v>3.3</v>
-      </c>
-      <c r="L243">
-        <v>3.4</v>
-      </c>
-      <c r="M243">
-        <v>2.25</v>
-      </c>
-      <c r="N243">
-        <v>3.2</v>
-      </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
-      <c r="P243">
-        <v>-0.25</v>
-      </c>
-      <c r="Q243">
+      <c r="T243">
         <v>1.925</v>
       </c>
-      <c r="R243">
+      <c r="U243">
         <v>1.925</v>
       </c>
-      <c r="S243">
-        <v>2.25</v>
-      </c>
-      <c r="T243">
-        <v>1.975</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
       <c r="V243">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y243">
+        <v>-0.5</v>
+      </c>
+      <c r="Z243">
+        <v>0.45</v>
+      </c>
+      <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
         <v>0.925</v>
-      </c>
-      <c r="Z243">
-        <v>-1</v>
-      </c>
-      <c r="AA243">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB243">
-        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -27730,7 +27730,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7060575</v>
+        <v>6807726</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -27739,76 +27739,76 @@
         <v>45311.5</v>
       </c>
       <c r="E317" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G317">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J317">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="K317">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L317">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M317">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N317">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O317">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P317">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q317">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R317">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S317">
         <v>2.5</v>
       </c>
       <c r="T317">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V317">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
+        <v>-1</v>
+      </c>
+      <c r="AB317">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA317">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB317">
-        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:28">
@@ -27816,7 +27816,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7060576</v>
+        <v>7060575</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -27825,76 +27825,76 @@
         <v>45311.5</v>
       </c>
       <c r="E318" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F318" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J318">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="K318">
         <v>3.4</v>
       </c>
       <c r="L318">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="M318">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N318">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O318">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="P318">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q318">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R318">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S318">
         <v>2.5</v>
       </c>
       <c r="T318">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U318">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V318">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB318">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -27902,7 +27902,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7060578</v>
+        <v>7060576</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -27911,67 +27911,67 @@
         <v>45311.5</v>
       </c>
       <c r="E319" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F319" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J319">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="K319">
+        <v>3.4</v>
+      </c>
+      <c r="L319">
+        <v>2.375</v>
+      </c>
+      <c r="M319">
+        <v>3.2</v>
+      </c>
+      <c r="N319">
         <v>3.5</v>
       </c>
-      <c r="L319">
-        <v>1.833</v>
-      </c>
-      <c r="M319">
-        <v>4.75</v>
-      </c>
-      <c r="N319">
-        <v>3.75</v>
-      </c>
       <c r="O319">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="P319">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q319">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R319">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S319">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T319">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U319">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V319">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="W319">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z319">
         <v>-1</v>
@@ -27980,7 +27980,7 @@
         <v>-1</v>
       </c>
       <c r="AB319">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:28">
@@ -27988,7 +27988,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6807726</v>
+        <v>7060578</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -27997,67 +27997,67 @@
         <v>45311.5</v>
       </c>
       <c r="E320" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F320" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320">
         <v>0</v>
       </c>
       <c r="I320" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J320">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="K320">
         <v>3.5</v>
       </c>
       <c r="L320">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="M320">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N320">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O320">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="P320">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q320">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R320">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T320">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U320">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V320">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z320">
         <v>-1</v>
@@ -28066,7 +28066,7 @@
         <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="321" spans="1:28">
@@ -28332,7 +28332,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7456735</v>
+        <v>7660379</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -28341,40 +28341,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E324" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F324" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I324" t="s">
         <v>54</v>
       </c>
       <c r="J324">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K324">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L324">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M324">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N324">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O324">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P324">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q324">
         <v>1.9</v>
@@ -28383,13 +28383,13 @@
         <v>1.95</v>
       </c>
       <c r="S324">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T324">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U324">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V324">
         <v>-1</v>
@@ -28398,7 +28398,7 @@
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Y324">
         <v>-1</v>
@@ -28407,10 +28407,10 @@
         <v>0.95</v>
       </c>
       <c r="AA324">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="325" spans="1:28">
@@ -28504,7 +28504,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7660379</v>
+        <v>7456735</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -28513,40 +28513,40 @@
         <v>45314.69791666666</v>
       </c>
       <c r="E326" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F326" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I326" t="s">
         <v>54</v>
       </c>
       <c r="J326">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K326">
+        <v>3.6</v>
+      </c>
+      <c r="L326">
         <v>3.8</v>
       </c>
-      <c r="L326">
-        <v>4.5</v>
-      </c>
       <c r="M326">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N326">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O326">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P326">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q326">
         <v>1.9</v>
@@ -28555,13 +28555,13 @@
         <v>1.95</v>
       </c>
       <c r="S326">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T326">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V326">
         <v>-1</v>
@@ -28570,7 +28570,7 @@
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y326">
         <v>-1</v>
@@ -28579,10 +28579,10 @@
         <v>0.95</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB326">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -28762,7 +28762,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6807730</v>
+        <v>6807728</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -28771,49 +28771,49 @@
         <v>45318.5</v>
       </c>
       <c r="E329" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F329" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I329" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J329">
+        <v>4.5</v>
+      </c>
+      <c r="K329">
+        <v>3.8</v>
+      </c>
+      <c r="L329">
         <v>1.727</v>
       </c>
-      <c r="K329">
+      <c r="M329">
+        <v>4.333</v>
+      </c>
+      <c r="N329">
         <v>3.5</v>
       </c>
-      <c r="L329">
-        <v>5</v>
-      </c>
-      <c r="M329">
-        <v>1.65</v>
-      </c>
-      <c r="N329">
-        <v>4</v>
-      </c>
       <c r="O329">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="P329">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q329">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R329">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S329">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T329">
         <v>1.825</v>
@@ -28825,16 +28825,16 @@
         <v>-1</v>
       </c>
       <c r="W329">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA329">
         <v>0.825</v>
@@ -28848,7 +28848,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6807728</v>
+        <v>6807727</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -28857,76 +28857,76 @@
         <v>45318.5</v>
       </c>
       <c r="E330" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F330" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I330" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J330">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="K330">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L330">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="M330">
+        <v>1.8</v>
+      </c>
+      <c r="N330">
+        <v>3.75</v>
+      </c>
+      <c r="O330">
         <v>4.333</v>
       </c>
-      <c r="N330">
-        <v>3.5</v>
-      </c>
-      <c r="O330">
-        <v>1.85</v>
-      </c>
       <c r="P330">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q330">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="R330">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S330">
         <v>2.25</v>
       </c>
       <c r="T330">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U330">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V330">
         <v>-1</v>
       </c>
       <c r="W330">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X330">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
         <v>-1</v>
       </c>
       <c r="Z330">
+        <v>1.025</v>
+      </c>
+      <c r="AA330">
+        <v>-1</v>
+      </c>
+      <c r="AB330">
         <v>0.875</v>
-      </c>
-      <c r="AA330">
-        <v>0.825</v>
-      </c>
-      <c r="AB330">
-        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -28934,7 +28934,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6807727</v>
+        <v>7075002</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -28943,49 +28943,49 @@
         <v>45318.5</v>
       </c>
       <c r="E331" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F331" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G331">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J331">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K331">
+        <v>3.4</v>
+      </c>
+      <c r="L331">
+        <v>2.6</v>
+      </c>
+      <c r="M331">
+        <v>2.375</v>
+      </c>
+      <c r="N331">
         <v>3.5</v>
       </c>
-      <c r="L331">
-        <v>3.6</v>
-      </c>
-      <c r="M331">
-        <v>1.8</v>
-      </c>
-      <c r="N331">
-        <v>3.75</v>
-      </c>
       <c r="O331">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P331">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q331">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R331">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S331">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T331">
         <v>1.975</v>
@@ -28994,25 +28994,25 @@
         <v>1.875</v>
       </c>
       <c r="V331">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W331">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z331">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB331">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29020,7 +29020,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7075002</v>
+        <v>7075001</v>
       </c>
       <c r="C332" t="s">
         <v>29</v>
@@ -29029,46 +29029,46 @@
         <v>45318.5</v>
       </c>
       <c r="E332" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H332">
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J332">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="K332">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L332">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="M332">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="N332">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O332">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="P332">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q332">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R332">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="S332">
         <v>2.75</v>
@@ -29080,25 +29080,25 @@
         <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA332">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29106,7 +29106,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7075001</v>
+        <v>7075000</v>
       </c>
       <c r="C333" t="s">
         <v>29</v>
@@ -29115,76 +29115,76 @@
         <v>45318.5</v>
       </c>
       <c r="E333" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G333">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J333">
+        <v>1.533</v>
+      </c>
+      <c r="K333">
+        <v>4.333</v>
+      </c>
+      <c r="L333">
+        <v>5.5</v>
+      </c>
+      <c r="M333">
         <v>1.727</v>
-      </c>
-      <c r="K333">
-        <v>3.8</v>
-      </c>
-      <c r="L333">
-        <v>4.5</v>
-      </c>
-      <c r="M333">
-        <v>1.615</v>
       </c>
       <c r="N333">
         <v>4.2</v>
       </c>
       <c r="O333">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P333">
         <v>-0.75</v>
       </c>
       <c r="Q333">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R333">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S333">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T333">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U333">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
         <v>-1</v>
       </c>
       <c r="W333">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y333">
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB333">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29278,7 +29278,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7075000</v>
+        <v>6807729</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -29287,13 +29287,13 @@
         <v>45318.5</v>
       </c>
       <c r="E335" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335">
         <v>2</v>
@@ -29302,40 +29302,40 @@
         <v>54</v>
       </c>
       <c r="J335">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="K335">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="L335">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M335">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N335">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O335">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P335">
         <v>-0.75</v>
       </c>
       <c r="Q335">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R335">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S335">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T335">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V335">
         <v>-1</v>
@@ -29344,19 +29344,19 @@
         <v>-1</v>
       </c>
       <c r="X335">
-        <v>3.333</v>
+        <v>3.75</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA335">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29364,7 +29364,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6807729</v>
+        <v>7075004</v>
       </c>
       <c r="C336" t="s">
         <v>29</v>
@@ -29373,49 +29373,49 @@
         <v>45318.5</v>
       </c>
       <c r="E336" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F336" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J336">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="K336">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L336">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="M336">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="N336">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O336">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="P336">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q336">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R336">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S336">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T336">
         <v>2</v>
@@ -29427,22 +29427,22 @@
         <v>-1</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X336">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z336">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:28">
@@ -29450,7 +29450,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7075004</v>
+        <v>7075005</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -29459,76 +29459,76 @@
         <v>45318.5</v>
       </c>
       <c r="E337" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F337" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G337">
+        <v>2</v>
+      </c>
+      <c r="H337">
+        <v>3</v>
+      </c>
+      <c r="I337" t="s">
+        <v>54</v>
+      </c>
+      <c r="J337">
+        <v>3</v>
+      </c>
+      <c r="K337">
+        <v>3.5</v>
+      </c>
+      <c r="L337">
+        <v>2.25</v>
+      </c>
+      <c r="M337">
+        <v>3</v>
+      </c>
+      <c r="N337">
+        <v>3.6</v>
+      </c>
+      <c r="O337">
+        <v>2.25</v>
+      </c>
+      <c r="P337">
+        <v>0.25</v>
+      </c>
+      <c r="Q337">
+        <v>1.85</v>
+      </c>
+      <c r="R337">
+        <v>2</v>
+      </c>
+      <c r="S337">
+        <v>2.25</v>
+      </c>
+      <c r="T337">
+        <v>2.05</v>
+      </c>
+      <c r="U337">
+        <v>1.75</v>
+      </c>
+      <c r="V337">
+        <v>-1</v>
+      </c>
+      <c r="W337">
+        <v>-1</v>
+      </c>
+      <c r="X337">
+        <v>1.25</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
         <v>1</v>
       </c>
-      <c r="H337">
-        <v>1</v>
-      </c>
-      <c r="I337" t="s">
-        <v>55</v>
-      </c>
-      <c r="J337">
-        <v>2.7</v>
-      </c>
-      <c r="K337">
-        <v>3.4</v>
-      </c>
-      <c r="L337">
-        <v>2.5</v>
-      </c>
-      <c r="M337">
-        <v>2.7</v>
-      </c>
-      <c r="N337">
-        <v>3.4</v>
-      </c>
-      <c r="O337">
-        <v>2.6</v>
-      </c>
-      <c r="P337">
-        <v>0</v>
-      </c>
-      <c r="Q337">
-        <v>1.925</v>
-      </c>
-      <c r="R337">
-        <v>1.925</v>
-      </c>
-      <c r="S337">
-        <v>2.5</v>
-      </c>
-      <c r="T337">
-        <v>2</v>
-      </c>
-      <c r="U337">
-        <v>1.85</v>
-      </c>
-      <c r="V337">
-        <v>-1</v>
-      </c>
-      <c r="W337">
-        <v>2.4</v>
-      </c>
-      <c r="X337">
-        <v>-1</v>
-      </c>
-      <c r="Y337">
-        <v>0</v>
-      </c>
-      <c r="Z337">
-        <v>0</v>
-      </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB337">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:28">
@@ -29536,7 +29536,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7075005</v>
+        <v>7093606</v>
       </c>
       <c r="C338" t="s">
         <v>29</v>
@@ -29545,55 +29545,55 @@
         <v>45318.5</v>
       </c>
       <c r="E338" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F338" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I338" t="s">
         <v>54</v>
       </c>
       <c r="J338">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K338">
+        <v>3.4</v>
+      </c>
+      <c r="L338">
+        <v>2.1</v>
+      </c>
+      <c r="M338">
         <v>3.5</v>
-      </c>
-      <c r="L338">
-        <v>2.25</v>
-      </c>
-      <c r="M338">
-        <v>3</v>
       </c>
       <c r="N338">
         <v>3.6</v>
       </c>
       <c r="O338">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P338">
         <v>0.25</v>
       </c>
       <c r="Q338">
+        <v>2.025</v>
+      </c>
+      <c r="R338">
+        <v>1.825</v>
+      </c>
+      <c r="S338">
+        <v>2.5</v>
+      </c>
+      <c r="T338">
         <v>1.85</v>
       </c>
-      <c r="R338">
-        <v>2</v>
-      </c>
-      <c r="S338">
-        <v>2.25</v>
-      </c>
-      <c r="T338">
-        <v>2.05</v>
-      </c>
       <c r="U338">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V338">
         <v>-1</v>
@@ -29602,19 +29602,19 @@
         <v>-1</v>
       </c>
       <c r="X338">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
+        <v>0.825</v>
+      </c>
+      <c r="AA338">
+        <v>-1</v>
+      </c>
+      <c r="AB338">
         <v>1</v>
-      </c>
-      <c r="AA338">
-        <v>1.05</v>
-      </c>
-      <c r="AB338">
-        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:28">
@@ -29622,7 +29622,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7093606</v>
+        <v>6807730</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -29631,76 +29631,76 @@
         <v>45318.5</v>
       </c>
       <c r="E339" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F339" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J339">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K339">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L339">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M339">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="N339">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O339">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="P339">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q339">
+        <v>1.825</v>
+      </c>
+      <c r="R339">
         <v>2.025</v>
-      </c>
-      <c r="R339">
-        <v>1.825</v>
       </c>
       <c r="S339">
         <v>2.5</v>
       </c>
       <c r="T339">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U339">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V339">
         <v>-1</v>
       </c>
       <c r="W339">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X339">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
         <v>-1</v>
       </c>
       <c r="Z339">
+        <v>1.025</v>
+      </c>
+      <c r="AA339">
         <v>0.825</v>
       </c>
-      <c r="AA339">
-        <v>-1</v>
-      </c>
       <c r="AB339">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -43554,7 +43554,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>7955459</v>
+        <v>7752808</v>
       </c>
       <c r="C501" t="s">
         <v>29</v>
@@ -43563,76 +43563,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E501" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F501" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G501">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J501">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="K501">
         <v>3.8</v>
       </c>
       <c r="L501">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M501">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N501">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O501">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P501">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q501">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R501">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S501">
         <v>2.25</v>
       </c>
       <c r="T501">
+        <v>2</v>
+      </c>
+      <c r="U501">
         <v>1.85</v>
       </c>
-      <c r="U501">
-        <v>2</v>
-      </c>
       <c r="V501">
         <v>-1</v>
       </c>
       <c r="W501">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X501">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y501">
         <v>-1</v>
       </c>
       <c r="Z501">
+        <v>0.825</v>
+      </c>
+      <c r="AA501">
+        <v>-1</v>
+      </c>
+      <c r="AB501">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA501">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB501">
-        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:28">
@@ -43640,7 +43640,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>7836992</v>
+        <v>7927491</v>
       </c>
       <c r="C502" t="s">
         <v>29</v>
@@ -43649,76 +43649,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E502" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F502" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G502">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J502">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="K502">
         <v>3.4</v>
       </c>
       <c r="L502">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M502">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N502">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O502">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="P502">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q502">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R502">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S502">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T502">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U502">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V502">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W502">
         <v>-1</v>
       </c>
       <c r="X502">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y502">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z502">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA502">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB502">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="503" spans="1:28">
@@ -43726,7 +43726,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>7927491</v>
+        <v>7836992</v>
       </c>
       <c r="C503" t="s">
         <v>29</v>
@@ -43735,76 +43735,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E503" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F503" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G503">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J503">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="K503">
         <v>3.4</v>
       </c>
       <c r="L503">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="M503">
+        <v>2.45</v>
+      </c>
+      <c r="N503">
+        <v>3.25</v>
+      </c>
+      <c r="O503">
         <v>3</v>
       </c>
-      <c r="N503">
-        <v>3.4</v>
-      </c>
-      <c r="O503">
-        <v>2.3</v>
-      </c>
       <c r="P503">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q503">
+        <v>2.1</v>
+      </c>
+      <c r="R503">
+        <v>1.775</v>
+      </c>
+      <c r="S503">
+        <v>2.25</v>
+      </c>
+      <c r="T503">
+        <v>2</v>
+      </c>
+      <c r="U503">
         <v>1.85</v>
       </c>
-      <c r="R503">
-        <v>2</v>
-      </c>
-      <c r="S503">
-        <v>2.75</v>
-      </c>
-      <c r="T503">
-        <v>1.975</v>
-      </c>
-      <c r="U503">
-        <v>1.875</v>
-      </c>
       <c r="V503">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W503">
         <v>-1</v>
       </c>
       <c r="X503">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y503">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z503">
+        <v>-1</v>
+      </c>
+      <c r="AA503">
         <v>1</v>
       </c>
-      <c r="AA503">
-        <v>-1</v>
-      </c>
       <c r="AB503">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504" spans="1:28">
@@ -43812,7 +43812,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>7752808</v>
+        <v>7927320</v>
       </c>
       <c r="C504" t="s">
         <v>29</v>
@@ -43821,76 +43821,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E504" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F504" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J504">
         <v>1.615</v>
       </c>
       <c r="K504">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L504">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M504">
         <v>1.727</v>
       </c>
       <c r="N504">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O504">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P504">
         <v>-0.75</v>
       </c>
       <c r="Q504">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R504">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S504">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T504">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U504">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V504">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W504">
         <v>-1</v>
       </c>
       <c r="X504">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y504">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z504">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA504">
         <v>-1</v>
       </c>
       <c r="AB504">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="505" spans="1:28">
@@ -43898,7 +43898,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>7927320</v>
+        <v>7965236</v>
       </c>
       <c r="C505" t="s">
         <v>29</v>
@@ -43907,76 +43907,76 @@
         <v>45391.65625</v>
       </c>
       <c r="E505" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F505" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J505">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="K505">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L505">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M505">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N505">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O505">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P505">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q505">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R505">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S505">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T505">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U505">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V505">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W505">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X505">
         <v>-1</v>
       </c>
       <c r="Y505">
-        <v>0.475</v>
+        <v>-0.5</v>
       </c>
       <c r="Z505">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA505">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB505">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506" spans="1:28">
@@ -43984,7 +43984,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>7965236</v>
+        <v>7955459</v>
       </c>
       <c r="C506" t="s">
         <v>29</v>
@@ -43993,10 +43993,10 @@
         <v>45391.65625</v>
       </c>
       <c r="E506" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F506" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G506">
         <v>2</v>
@@ -44008,58 +44008,58 @@
         <v>55</v>
       </c>
       <c r="J506">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K506">
+        <v>3.8</v>
+      </c>
+      <c r="L506">
+        <v>4.5</v>
+      </c>
+      <c r="M506">
+        <v>2</v>
+      </c>
+      <c r="N506">
+        <v>3.6</v>
+      </c>
+      <c r="O506">
         <v>3.5</v>
       </c>
-      <c r="L506">
-        <v>4</v>
-      </c>
-      <c r="M506">
-        <v>2.1</v>
-      </c>
-      <c r="N506">
-        <v>3.25</v>
-      </c>
-      <c r="O506">
-        <v>3.75</v>
-      </c>
       <c r="P506">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q506">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R506">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S506">
         <v>2.25</v>
       </c>
       <c r="T506">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U506">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V506">
         <v>-1</v>
       </c>
       <c r="W506">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z506">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA506">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB506">
         <v>-1</v>
@@ -45446,7 +45446,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>7688682</v>
+        <v>7925835</v>
       </c>
       <c r="C523" t="s">
         <v>29</v>
@@ -45455,58 +45455,58 @@
         <v>45398.65625</v>
       </c>
       <c r="E523" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F523" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G523">
+        <v>4</v>
+      </c>
+      <c r="H523">
         <v>1</v>
-      </c>
-      <c r="H523">
-        <v>0</v>
       </c>
       <c r="I523" t="s">
         <v>56</v>
       </c>
       <c r="J523">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="K523">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="L523">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="M523">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N523">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O523">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P523">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q523">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R523">
+        <v>1.825</v>
+      </c>
+      <c r="S523">
+        <v>3.25</v>
+      </c>
+      <c r="T523">
         <v>1.85</v>
       </c>
-      <c r="S523">
-        <v>2.5</v>
-      </c>
-      <c r="T523">
-        <v>1.925</v>
-      </c>
       <c r="U523">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V523">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="W523">
         <v>-1</v>
@@ -45515,16 +45515,16 @@
         <v>-1</v>
       </c>
       <c r="Y523">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z523">
         <v>-1</v>
       </c>
       <c r="AA523">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB523">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:28">
@@ -45532,7 +45532,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>7925835</v>
+        <v>7688682</v>
       </c>
       <c r="C524" t="s">
         <v>29</v>
@@ -45541,58 +45541,58 @@
         <v>45398.65625</v>
       </c>
       <c r="E524" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F524" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G524">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="s">
         <v>56</v>
       </c>
       <c r="J524">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="K524">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="L524">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="M524">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N524">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O524">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P524">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q524">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R524">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S524">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T524">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U524">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V524">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="W524">
         <v>-1</v>
@@ -45601,16 +45601,16 @@
         <v>-1</v>
       </c>
       <c r="Y524">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z524">
         <v>-1</v>
       </c>
       <c r="AA524">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB524">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="525" spans="1:28">
@@ -46048,7 +46048,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>7451495</v>
+        <v>7437048</v>
       </c>
       <c r="C530" t="s">
         <v>29</v>
@@ -46057,34 +46057,34 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E530" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F530" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G530">
         <v>1</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J530">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="K530">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L530">
+        <v>7</v>
+      </c>
+      <c r="M530">
+        <v>1.666</v>
+      </c>
+      <c r="N530">
         <v>4</v>
-      </c>
-      <c r="M530">
-        <v>1.75</v>
-      </c>
-      <c r="N530">
-        <v>3.6</v>
       </c>
       <c r="O530">
         <v>4.75</v>
@@ -46093,40 +46093,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q530">
+        <v>1.875</v>
+      </c>
+      <c r="R530">
         <v>1.975</v>
       </c>
-      <c r="R530">
+      <c r="S530">
+        <v>2.75</v>
+      </c>
+      <c r="T530">
+        <v>1.975</v>
+      </c>
+      <c r="U530">
         <v>1.875</v>
       </c>
-      <c r="S530">
-        <v>2.5</v>
-      </c>
-      <c r="T530">
-        <v>2.025</v>
-      </c>
-      <c r="U530">
-        <v>1.825</v>
-      </c>
       <c r="V530">
         <v>-1</v>
       </c>
       <c r="W530">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X530">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y530">
         <v>-1</v>
       </c>
       <c r="Z530">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA530">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB530">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="531" spans="1:28">
@@ -46134,7 +46134,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>7437048</v>
+        <v>7430346</v>
       </c>
       <c r="C531" t="s">
         <v>29</v>
@@ -46143,76 +46143,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E531" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F531" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G531">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H531">
         <v>2</v>
       </c>
       <c r="I531" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J531">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="K531">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="L531">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M531">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="N531">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O531">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P531">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q531">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R531">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S531">
         <v>2.75</v>
       </c>
       <c r="T531">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U531">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V531">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W531">
         <v>-1</v>
       </c>
       <c r="X531">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y531">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z531">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA531">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AB531">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532" spans="1:28">
@@ -46220,7 +46220,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>7430346</v>
+        <v>7451495</v>
       </c>
       <c r="C532" t="s">
         <v>29</v>
@@ -46229,76 +46229,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E532" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F532" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G532">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J532">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K532">
         <v>3.5</v>
       </c>
       <c r="L532">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M532">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N532">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O532">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P532">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q532">
+        <v>1.975</v>
+      </c>
+      <c r="R532">
+        <v>1.875</v>
+      </c>
+      <c r="S532">
+        <v>2.5</v>
+      </c>
+      <c r="T532">
         <v>2.025</v>
       </c>
-      <c r="R532">
+      <c r="U532">
         <v>1.825</v>
       </c>
-      <c r="S532">
-        <v>2.75</v>
-      </c>
-      <c r="T532">
-        <v>2</v>
-      </c>
-      <c r="U532">
-        <v>1.85</v>
-      </c>
       <c r="V532">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W532">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X532">
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z532">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA532">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="533" spans="1:28">
@@ -46650,7 +46650,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7434591</v>
+        <v>7434592</v>
       </c>
       <c r="C537" t="s">
         <v>29</v>
@@ -46659,55 +46659,55 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E537" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F537" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I537" t="s">
         <v>54</v>
       </c>
       <c r="J537">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="K537">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L537">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="M537">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N537">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O537">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P537">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q537">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R537">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S537">
         <v>2.25</v>
       </c>
       <c r="T537">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U537">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V537">
         <v>-1</v>
@@ -46716,19 +46716,19 @@
         <v>-1</v>
       </c>
       <c r="X537">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y537">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA537">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB537">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538" spans="1:28">
@@ -46736,7 +46736,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>7434592</v>
+        <v>7434591</v>
       </c>
       <c r="C538" t="s">
         <v>29</v>
@@ -46745,55 +46745,55 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E538" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F538" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
         <v>1</v>
-      </c>
-      <c r="H538">
-        <v>3</v>
       </c>
       <c r="I538" t="s">
         <v>54</v>
       </c>
       <c r="J538">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="K538">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L538">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="M538">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N538">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O538">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P538">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q538">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R538">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S538">
         <v>2.25</v>
       </c>
       <c r="T538">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U538">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V538">
         <v>-1</v>
@@ -46802,19 +46802,19 @@
         <v>-1</v>
       </c>
       <c r="X538">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y538">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z538">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA538">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB538">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="539" spans="1:28">
@@ -47080,7 +47080,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>7467520</v>
+        <v>7451499</v>
       </c>
       <c r="C542" t="s">
         <v>29</v>
@@ -47089,76 +47089,76 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E542" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F542" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G542">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H542">
         <v>0</v>
       </c>
       <c r="I542" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J542">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K542">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L542">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M542">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N542">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O542">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P542">
         <v>-0.25</v>
       </c>
       <c r="Q542">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R542">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S542">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T542">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U542">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V542">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W542">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X542">
         <v>-1</v>
       </c>
       <c r="Y542">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z542">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA542">
         <v>-1</v>
       </c>
       <c r="AB542">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="543" spans="1:28">
@@ -47166,7 +47166,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>7467518</v>
+        <v>7467520</v>
       </c>
       <c r="C543" t="s">
         <v>29</v>
@@ -47175,49 +47175,49 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E543" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F543" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="s">
         <v>56</v>
       </c>
       <c r="J543">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="K543">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L543">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="M543">
+        <v>2.05</v>
+      </c>
+      <c r="N543">
+        <v>3.75</v>
+      </c>
+      <c r="O543">
         <v>3.4</v>
       </c>
-      <c r="N543">
-        <v>4</v>
-      </c>
-      <c r="O543">
-        <v>2</v>
-      </c>
       <c r="P543">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q543">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R543">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S543">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T543">
         <v>1.975</v>
@@ -47226,7 +47226,7 @@
         <v>1.875</v>
       </c>
       <c r="V543">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="W543">
         <v>-1</v>
@@ -47235,16 +47235,16 @@
         <v>-1</v>
       </c>
       <c r="Y543">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z543">
         <v>-1</v>
       </c>
       <c r="AA543">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB543">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="544" spans="1:28">
@@ -47252,7 +47252,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>7467516</v>
+        <v>7467518</v>
       </c>
       <c r="C544" t="s">
         <v>29</v>
@@ -47261,58 +47261,58 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E544" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F544" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G544">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="s">
         <v>56</v>
       </c>
       <c r="J544">
-        <v>1.222</v>
+        <v>2.9</v>
       </c>
       <c r="K544">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L544">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="M544">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="N544">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O544">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P544">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q544">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R544">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S544">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T544">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U544">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V544">
-        <v>0.222</v>
+        <v>2.4</v>
       </c>
       <c r="W544">
         <v>-1</v>
@@ -47321,16 +47321,16 @@
         <v>-1</v>
       </c>
       <c r="Y544">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z544">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA544">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB544">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="545" spans="1:28">
@@ -47338,7 +47338,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>7451497</v>
+        <v>7467516</v>
       </c>
       <c r="C545" t="s">
         <v>29</v>
@@ -47347,13 +47347,13 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E545" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F545" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G545">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H545">
         <v>0</v>
@@ -47362,43 +47362,43 @@
         <v>56</v>
       </c>
       <c r="J545">
-        <v>3</v>
+        <v>1.222</v>
       </c>
       <c r="K545">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L545">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="M545">
-        <v>2.375</v>
+        <v>1.222</v>
       </c>
       <c r="N545">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O545">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="P545">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q545">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R545">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S545">
         <v>2.75</v>
       </c>
       <c r="T545">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U545">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V545">
-        <v>1.375</v>
+        <v>0.222</v>
       </c>
       <c r="W545">
         <v>-1</v>
@@ -47407,16 +47407,16 @@
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="Z545">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA545">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB545">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:28">
@@ -47424,7 +47424,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>7451500</v>
+        <v>7451497</v>
       </c>
       <c r="C546" t="s">
         <v>29</v>
@@ -47433,58 +47433,58 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E546" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F546" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G546">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="s">
         <v>56</v>
       </c>
       <c r="J546">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="K546">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L546">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="M546">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="N546">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O546">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P546">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q546">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R546">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S546">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T546">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U546">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V546">
-        <v>1.55</v>
+        <v>1.375</v>
       </c>
       <c r="W546">
         <v>-1</v>
@@ -47493,16 +47493,16 @@
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z546">
         <v>-1</v>
       </c>
       <c r="AA546">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB546">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="547" spans="1:28">
@@ -47510,7 +47510,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>7451496</v>
+        <v>7451500</v>
       </c>
       <c r="C547" t="s">
         <v>29</v>
@@ -47519,76 +47519,76 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E547" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F547" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G547">
+        <v>2</v>
+      </c>
+      <c r="H547">
         <v>1</v>
       </c>
-      <c r="H547">
-        <v>2</v>
-      </c>
       <c r="I547" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J547">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="K547">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L547">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="M547">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N547">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O547">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="P547">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q547">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R547">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S547">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T547">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U547">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V547">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W547">
         <v>-1</v>
       </c>
       <c r="X547">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y547">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z547">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA547">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB547">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548" spans="1:28">
@@ -47596,7 +47596,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>7467521</v>
+        <v>7451496</v>
       </c>
       <c r="C548" t="s">
         <v>29</v>
@@ -47605,76 +47605,76 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E548" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F548" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G548">
         <v>1</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J548">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="K548">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L548">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="M548">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N548">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O548">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="P548">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q548">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R548">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S548">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T548">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U548">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V548">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W548">
         <v>-1</v>
       </c>
       <c r="X548">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y548">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z548">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA548">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB548">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:28">
@@ -47682,7 +47682,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>7475077</v>
+        <v>7467521</v>
       </c>
       <c r="C549" t="s">
         <v>29</v>
@@ -47691,49 +47691,49 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E549" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F549" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G549">
         <v>1</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J549">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="K549">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L549">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M549">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N549">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="O549">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="P549">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q549">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R549">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S549">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T549">
         <v>1.875</v>
@@ -47742,19 +47742,19 @@
         <v>1.975</v>
       </c>
       <c r="V549">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W549">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X549">
         <v>-1</v>
       </c>
       <c r="Y549">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z549">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA549">
         <v>-1</v>
@@ -47768,7 +47768,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>7451499</v>
+        <v>7451498</v>
       </c>
       <c r="C550" t="s">
         <v>29</v>
@@ -47777,76 +47777,76 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E550" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F550" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G550">
         <v>0</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J550">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K550">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L550">
+        <v>3.4</v>
+      </c>
+      <c r="M550">
+        <v>1.909</v>
+      </c>
+      <c r="N550">
+        <v>3.6</v>
+      </c>
+      <c r="O550">
+        <v>4</v>
+      </c>
+      <c r="P550">
+        <v>-0.5</v>
+      </c>
+      <c r="Q550">
+        <v>1.925</v>
+      </c>
+      <c r="R550">
+        <v>1.925</v>
+      </c>
+      <c r="S550">
         <v>2.5</v>
       </c>
-      <c r="M550">
-        <v>2.4</v>
-      </c>
-      <c r="N550">
-        <v>3.3</v>
-      </c>
-      <c r="O550">
+      <c r="T550">
+        <v>1.925</v>
+      </c>
+      <c r="U550">
+        <v>1.925</v>
+      </c>
+      <c r="V550">
+        <v>-1</v>
+      </c>
+      <c r="W550">
+        <v>-1</v>
+      </c>
+      <c r="X550">
         <v>3</v>
       </c>
-      <c r="P550">
-        <v>-0.25</v>
-      </c>
-      <c r="Q550">
-        <v>2.025</v>
-      </c>
-      <c r="R550">
-        <v>1.825</v>
-      </c>
-      <c r="S550">
-        <v>2.25</v>
-      </c>
-      <c r="T550">
-        <v>1.825</v>
-      </c>
-      <c r="U550">
-        <v>2.025</v>
-      </c>
-      <c r="V550">
-        <v>-1</v>
-      </c>
-      <c r="W550">
-        <v>2.3</v>
-      </c>
-      <c r="X550">
-        <v>-1</v>
-      </c>
       <c r="Y550">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z550">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA550">
         <v>-1</v>
       </c>
       <c r="AB550">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="551" spans="1:28">
@@ -47854,7 +47854,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>7451498</v>
+        <v>7467517</v>
       </c>
       <c r="C551" t="s">
         <v>29</v>
@@ -47863,76 +47863,76 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E551" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F551" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G551">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I551" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J551">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K551">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L551">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M551">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N551">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O551">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P551">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q551">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R551">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S551">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T551">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U551">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V551">
         <v>-1</v>
       </c>
       <c r="W551">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X551">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y551">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z551">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA551">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB551">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552" spans="1:28">
@@ -47940,7 +47940,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>7467517</v>
+        <v>7467519</v>
       </c>
       <c r="C552" t="s">
         <v>29</v>
@@ -47949,73 +47949,73 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E552" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F552" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G552">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H552">
         <v>3</v>
       </c>
       <c r="I552" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J552">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="K552">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L552">
         <v>2.5</v>
       </c>
       <c r="M552">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N552">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O552">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P552">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q552">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R552">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S552">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T552">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U552">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V552">
         <v>-1</v>
       </c>
       <c r="W552">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X552">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y552">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z552">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA552">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB552">
         <v>-1</v>
@@ -48026,7 +48026,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>7467519</v>
+        <v>7475077</v>
       </c>
       <c r="C553" t="s">
         <v>29</v>
@@ -48035,76 +48035,76 @@
         <v>45409.35416666666</v>
       </c>
       <c r="E553" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F553" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G553">
         <v>1</v>
       </c>
       <c r="H553">
+        <v>1</v>
+      </c>
+      <c r="I553" t="s">
+        <v>55</v>
+      </c>
+      <c r="J553">
+        <v>1.4</v>
+      </c>
+      <c r="K553">
+        <v>4.6</v>
+      </c>
+      <c r="L553">
+        <v>7.5</v>
+      </c>
+      <c r="M553">
+        <v>1.4</v>
+      </c>
+      <c r="N553">
+        <v>5</v>
+      </c>
+      <c r="O553">
+        <v>7.5</v>
+      </c>
+      <c r="P553">
+        <v>-1.25</v>
+      </c>
+      <c r="Q553">
+        <v>1.875</v>
+      </c>
+      <c r="R553">
+        <v>1.975</v>
+      </c>
+      <c r="S553">
         <v>3</v>
       </c>
-      <c r="I553" t="s">
-        <v>54</v>
-      </c>
-      <c r="J553">
-        <v>2.7</v>
-      </c>
-      <c r="K553">
-        <v>3.4</v>
-      </c>
-      <c r="L553">
-        <v>2.5</v>
-      </c>
-      <c r="M553">
-        <v>2.375</v>
-      </c>
-      <c r="N553">
-        <v>3.5</v>
-      </c>
-      <c r="O553">
-        <v>3</v>
-      </c>
-      <c r="P553">
-        <v>-0.25</v>
-      </c>
-      <c r="Q553">
-        <v>2.05</v>
-      </c>
-      <c r="R553">
-        <v>1.8</v>
-      </c>
-      <c r="S553">
-        <v>2.5</v>
-      </c>
       <c r="T553">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U553">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V553">
         <v>-1</v>
       </c>
       <c r="W553">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X553">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y553">
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA553">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB553">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="554" spans="1:28">
@@ -48148,19 +48148,19 @@
         <v>0.25</v>
       </c>
       <c r="Q554">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R554">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S554">
         <v>2.75</v>
       </c>
       <c r="T554">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U554">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V554">
         <v>0</v>
@@ -48201,31 +48201,31 @@
         <v>2.5</v>
       </c>
       <c r="M555">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N555">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O555">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P555">
         <v>-0.25</v>
       </c>
       <c r="Q555">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R555">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S555">
         <v>3.25</v>
       </c>
       <c r="T555">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U555">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V555">
         <v>0</v>
